--- a/report/change_log_pm2.xlsx
+++ b/report/change_log_pm2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_zaf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyedSumair\Documents\GitHub\DRMS_COMP6231_TEAM10\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="110">
   <si>
     <t>Function Name</t>
   </si>
@@ -342,6 +342,18 @@
   </si>
   <si>
     <t>src/test/StudentClientTest.java</t>
+  </si>
+  <si>
+    <t>bookPicker</t>
+  </si>
+  <si>
+    <t>116-150</t>
+  </si>
+  <si>
+    <t>initializeTestingData</t>
+  </si>
+  <si>
+    <t>685-726</t>
   </si>
 </sst>
 </file>
@@ -721,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,54 +1137,54 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>62</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>63</v>
       </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>64</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>63</v>
       </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>65</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>66</v>
       </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1180,13 +1192,13 @@
         <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1194,13 +1206,13 @@
         <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1208,13 +1220,13 @@
         <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1222,13 +1234,13 @@
         <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1236,13 +1248,13 @@
         <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1250,13 +1262,13 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1264,41 +1276,41 @@
         <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1306,13 +1318,13 @@
         <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1320,13 +1332,13 @@
         <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1334,13 +1346,13 @@
         <v>85</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,13 +1360,13 @@
         <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1362,13 +1374,13 @@
         <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1376,13 +1388,13 @@
         <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1390,13 +1402,13 @@
         <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1404,23 +1416,51 @@
         <v>85</v>
       </c>
       <c r="B64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" t="s">
         <v>95</v>
       </c>
-      <c r="C64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>105</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" t="s">
         <v>63</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C68" t="s">
         <v>5</v>
       </c>
     </row>
